--- a/data/trans_bre/MCS12_SP_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.203639630097483</v>
+        <v>3.155981462652905</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.822373829133692</v>
+        <v>9.904854369033863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07512432828939734</v>
+        <v>0.0418303581820894</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.554055507946215</v>
+        <v>6.529163128825212</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05568783942570613</v>
+        <v>0.05231585542387145</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1800735487631475</v>
+        <v>0.183018300126501</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0001926143339467858</v>
+        <v>0.0008863535545825655</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1218406311190034</v>
+        <v>0.1175609109568382</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.60725233994354</v>
+        <v>13.84824325461636</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.73588158086309</v>
+        <v>19.36589426964319</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.825245757844995</v>
+        <v>7.913774175365523</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.50381442984559</v>
+        <v>19.4634177664568</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2581313099984625</v>
+        <v>0.2642282128947843</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3859697065150434</v>
+        <v>0.4019677562738626</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1309157019050827</v>
+        <v>0.1345456070552778</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3984328448271376</v>
+        <v>0.426171332628301</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.970748137514029</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.065168288952069</v>
+        <v>9.065168288952064</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1979439616907889</v>
@@ -749,7 +749,7 @@
         <v>0.06145055092301607</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2269396375525163</v>
+        <v>0.2269396375525162</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.529355408765865</v>
+        <v>4.208268362578059</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.113551247618085</v>
+        <v>8.447159559336452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.379746823840155</v>
+        <v>-1.509263806554648</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.871318828882191</v>
+        <v>4.849005347385002</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09823795143694423</v>
+        <v>0.09347852153000849</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1522174831469198</v>
+        <v>0.155673872251443</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02863024434635348</v>
+        <v>-0.0301843433205929</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1143029396235061</v>
+        <v>0.1113944911285143</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.16901932331751</v>
+        <v>13.35619748175081</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.88092126969159</v>
+        <v>17.0703645553682</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.186709684836984</v>
+        <v>7.881642727739706</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.71939972038367</v>
+        <v>13.53266657526695</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3210303444837188</v>
+        <v>0.3289134424716393</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3530195306616782</v>
+        <v>0.3589691425637261</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1773198938498745</v>
+        <v>0.1746596952821791</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3721407957174068</v>
+        <v>0.3684616996944571</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>10.6257610718956</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.549725724087418</v>
+        <v>6.549725724087424</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.328919228321587</v>
@@ -849,7 +849,7 @@
         <v>0.2762672801898151</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1811026039502372</v>
+        <v>0.1811026039502374</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.36565064807376</v>
+        <v>7.165388013116219</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.399569341385714</v>
+        <v>5.271491145042578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.549422190374587</v>
+        <v>5.511120368192909</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.386103970238468</v>
+        <v>2.670644176281275</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1920759690579734</v>
+        <v>0.1913323691906341</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1070058881205436</v>
+        <v>0.1054044062300565</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1347119033725753</v>
+        <v>0.1347017863891722</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.06046596553269561</v>
+        <v>0.06662519989450089</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.75543808323941</v>
+        <v>16.17243393094603</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.39990485164843</v>
+        <v>15.77974519460894</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.59085865498938</v>
+        <v>15.16901500463507</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.69146614444651</v>
+        <v>10.52301871245165</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4733033183957457</v>
+        <v>0.4849382216836456</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3440355374178993</v>
+        <v>0.3515630801076129</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4345762648688232</v>
+        <v>0.4255701243964369</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3194740931844389</v>
+        <v>0.304158102002623</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>10.02327947244596</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.305290256899871</v>
+        <v>8.305290256899889</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1670954361614429</v>
@@ -949,7 +949,7 @@
         <v>0.2955217163484783</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1833328454706078</v>
+        <v>0.1833328454706082</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6624154834890119</v>
+        <v>0.7622064907304285</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.820998833363191</v>
+        <v>4.864154586307297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.62473342327423</v>
+        <v>3.403949801635865</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.678081524652219</v>
+        <v>3.585549672056596</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01361388846785446</v>
+        <v>0.01693570319324868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09722623403683357</v>
+        <v>0.1047771408505245</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1018013505035907</v>
+        <v>0.08877475211681644</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07950835958369896</v>
+        <v>0.07586651777463244</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.87037368425037</v>
+        <v>15.06943539842653</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.2190168106562</v>
+        <v>19.16059116872506</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.11083837254793</v>
+        <v>16.6820682260142</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.66318201839994</v>
+        <v>12.60738173902088</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3648146084527061</v>
+        <v>0.3613871419178226</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.430719861566574</v>
+        <v>0.4617019450678324</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5285463034124349</v>
+        <v>0.5413523846902289</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3345215579312196</v>
+        <v>0.2959052878214336</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.413136890333829</v>
+        <v>8.434608921369874</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.54346618200169</v>
+        <v>10.27315320573753</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.422820003540187</v>
+        <v>3.947790038514133</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.730860362305985</v>
+        <v>6.706244011403012</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1886995695782122</v>
+        <v>0.1922191784930999</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2089208418511106</v>
+        <v>0.2040475169046005</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08930358134643017</v>
+        <v>0.07950215039530334</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1541893599443679</v>
+        <v>0.1545398306304658</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.44546202058537</v>
+        <v>13.27305520594343</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.07584134979207</v>
+        <v>15.20321114604249</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.229455179216414</v>
+        <v>9.067934952803782</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.76228383446566</v>
+        <v>11.31489675016967</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3221246771307518</v>
+        <v>0.3196286733827351</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3171586487544709</v>
+        <v>0.318478084064874</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1966131060795194</v>
+        <v>0.1954807510617681</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2912049916532795</v>
+        <v>0.2818004512116434</v>
       </c>
     </row>
     <row r="19">
